--- a/biology/Botanique/Arboretum_Marcel_Kroenlein/Arboretum_Marcel_Kroenlein.xlsx
+++ b/biology/Botanique/Arboretum_Marcel_Kroenlein/Arboretum_Marcel_Kroenlein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum Marcel Kroenlein de Roure est le premier et le seul arboretum d'altitude d'Europe. Il est situé sur la commune de Roure, (Alpes-Maritimes, France) sur quinze hectares de terrains communaux entre 1 280 et 1 700 m d'altitude, en lisière du Parc national du Mercantour.
 Le site présente une grande variété de végétation, et notamment d'arbre du monde entier vivant dans l'étage montagnard. 
 Des arbres de haute montagne côtoient une flore de basse altitude. L’arboretum, situé à l’adret, bénéficie à la fois des influences méditerranéennes et alpines. Le relief et l’ouverture du site vers le midi créent un microclimat qui permet d’introduire des espèces plus exotiques et de rassembler les arbres des montagnes du monde.
 On y trouve des collections de conifères, de joubarbes, d'érables, de genévriers et de rosiers.
-L'arboretum Marcel Kroenlein est ouvert au public et se visite toute l'année. Il est labellisé « Jardin remarquable »[1].
+L'arboretum Marcel Kroenlein est ouvert au public et se visite toute l'année. Il est labellisé « Jardin remarquable ».
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1987, Madame Michèle Ramin, future présidente, rencontre Marcel Kroenlein, à l'époque directeur du jardin exotique de Monaco. Elle lui fait part de son désir de mettre en valeur les richesses naturelles de la région. Le botaniste lui suggère alors de créer un arboretum. En 1988, les premiers arbres sont plantés.  
 En 1989, des artistes de renom : Ben, Cesar, Arman, soutiennent l'Arboretum. Ils seront suivis de beaucoup d'autres.
@@ -550,50 +564,159 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arboretum Marcel Kroenlein a pour vocation de rassembler les feuillus et les conifères des Alpes et d'autres montagnes du monde, une collection d'érables d'altitude, le patrimoine des rosiers sauvages des Alpes maritimes. Il a aussi pour mission de préserver la flore spontanée  des Alpes-Maritimes.
-Les arbres
-Deux essences spontanées prédominent sur l'Arboretum : le pin sylvestre et le mélèze d'Europe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les arbres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux essences spontanées prédominent sur l'Arboretum : le pin sylvestre et le mélèze d'Europe.
 Depuis les premières plantations en 1988, ce sont plus de 300 essences qui ont été introduites sur le site de l’Arboretum. 
 Pins, dont deux spécimens de l'arbre fossile appelé pin de Wollemi (à ce jour, septembre 2012, un seul a su résister aux aléas de la concurrence, du climat et de la nature du sol) et quelques exemplaires de Pinus culminicola des hautes montagnes du Mexique, sapins, mélèzes, cèdres, épicéas et douglas représentent largement la famille des Abiétacées ou Pinacées. 
 Nombre de feuillus sont aussi présents dans ce musée vivant de l’arbre : érables d'Asie, d'Amérique et d'Europe, chêne rouge d’Amérique, frênes, noyers, prunus, ginkgo, etc.
 On déplore malheureusement, ces dernières années, une recrudescence des dégâts occasionnés par les chevreuils. Ces petits cervidés, artificiellement introduits et maintenus en nombre trop important dans un environnement peu fait pour eux, s'en prennent aux rameaux et surtout à l'écorce des jeunes arbres, compromettant ainsi des années et des années de patients efforts.
-Recherche scientifique
-Depuis juin 1998, l’arboretum d’altitude de Roure s’est doté d’un Comité scientifique pluridisciplinaire composé de 12 membres auxquels sont associés 6 conseillers scientifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherche scientifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis juin 1998, l’arboretum d’altitude de Roure s’est doté d’un Comité scientifique pluridisciplinaire composé de 12 membres auxquels sont associés 6 conseillers scientifiques.
 Ce Comité scientifique regroupe des personnalités d’horizons très divers et de compétences multiples ; plusieurs grands organismes nationaux d’enseignement supérieur, de recherche et de gestion du patrimoine naturel sont représentés (Centre national de la recherche scientifique du génie rural, Office national des forêts, Parc national du Mercantour).
 L'Arboretum bénéficie du label de l'Université Aix-Marseille III, du Rectorat des Alpes-Maritimes et des "Jardins Remarquables" de France.
-Conservatoire
-Conservatoire et Institut méditerranéo-alpin de botanique et d'écologie sont gérés par le président Henri Sandoz, docteur d'État ès sciences, phytoécologue et son comité scientifique.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Arboretum_Marcel_Kroenlein</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Arboretum_Marcel_Kroenlein</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Rôles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Conservatoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Conservatoire et Institut méditerranéo-alpin de botanique et d'écologie sont gérés par le président Henri Sandoz, docteur d'État ès sciences, phytoécologue et son comité scientifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arboretum_Marcel_Kroenlein</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>L'Art et l'Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis son origine l'arboretum de Roure est lié à l'art.
 Une collection de cartes postales signées des plus grands noms, éditées en tirage limité, est disponible à la vente, ainsi qu'un timbre émis par la Principauté de Monaco, évoquant les étages de végétation des Alpes maritimes.
